--- a/data-raw/DBI_CEC.xlsx
+++ b/data-raw/DBI_CEC.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dragDBI\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852745DE-0F73-4909-9421-E192895B6F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D6AE66-53EF-4F4D-BE54-497E8533EB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBI_CEC" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DBI_CEC!$A$1:$G$617</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -850,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7B874D-3A21-4932-9A0A-219C6D25699B}">
   <dimension ref="A1:G617"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2103,7 +2106,9 @@
       <c r="F54" s="2">
         <v>3</v>
       </c>
-      <c r="G54" s="2"/>
+      <c r="G54" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -15055,6 +15060,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G617" xr:uid="{AE7B874D-3A21-4932-9A0A-219C6D25699B}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>